--- a/biology/Botanique/Lomentariaceae/Lomentariaceae.xlsx
+++ b/biology/Botanique/Lomentariaceae/Lomentariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lomentariaceae sont une famille d’algues rouges de l’ordre des Rhodymeniales. 
 </t>
@@ -511,16 +523,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (14 mars 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (14 mars 2013) :
 genre Binghamia J.Agardh
 genre Binghamiopsis I.K.Lee, J.A.West &amp; Hommersand
 genre Ceratodictyon Zanardini
 genre Lomentaria Lyngbye
 genre Semnocarpa Huisman, H.J.Foard &amp; Kraft
 genre Stirnia M.J.Wynne
-Selon NCBI  (14 mars 2013)[2] :
+Selon NCBI  (14 mars 2013) :
 genre Ceratodictyon
 Ceratodictyon repens
 Ceratodictyon spongiosum
@@ -542,7 +556,7 @@
 Semnocarpa minuta
 genre Stirnia
 Stirnia prolifera
-Selon World Register of Marine Species                               (16 janvier 2021)[3] :
+Selon World Register of Marine Species                               (16 janvier 2021) :
 genre Binghamia J.Agardh, 1894
 genre Binghamiopsis I.K.Lee, J.A.West &amp; Hommersand, 1988
 genre Ceratodictyon Zanardini, 1878
